--- a/001.xlsx
+++ b/001.xlsx
@@ -975,7 +975,7 @@
   <dimension ref="A1:F182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1042,7 +1042,6 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <f t="shared" si="0"/>
         <v>25025</v>
       </c>
     </row>
